--- a/Whatsapp Status Testcases.xlsx
+++ b/Whatsapp Status Testcases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AAFAE6-7C14-4BD7-910F-FC0AC6D4C178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5EFFF1-372C-4173-A3D1-101B13E0AEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E64D8CB-471F-4B99-B90C-3E261444304A}"/>
   </bookViews>
@@ -612,7 +612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FCECFA-C097-4648-B347-F50DD4D97D0B}">
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
